--- a/Bronnen/Genen_literatuur_tabel.xlsx
+++ b/Bronnen/Genen_literatuur_tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55f50cb3b03089af/jaar 2/periode 3/Reuma/Reuma/Bronnen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DE3144-4C3A-4976-AEE6-4010FFD8A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1DE3144-4C3A-4976-AEE6-4010FFD8A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32028FA4-1BA4-4516-A8FA-6404356DE533}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,17 +131,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +485,7 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -523,6 +534,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4E6A82AE-24E8-46E8-9DB2-5191EA7A4E49}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>